--- a/dataanalysis/data/predictions/1000/09120939_0942.xlsx
+++ b/dataanalysis/data/predictions/1000/09120939_0942.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="123">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-12</t>
   </si>
   <si>
@@ -380,12 +383,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -743,13 +740,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,19 +849,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-0.31</v>
@@ -882,7 +882,7 @@
         <v>28253.31</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -923,8 +923,23 @@
       <c r="W2">
         <v>-0.35</v>
       </c>
+      <c r="X2">
+        <v>20.02</v>
+      </c>
+      <c r="Y2">
+        <v>15.11</v>
+      </c>
+      <c r="Z2">
+        <v>19.16</v>
+      </c>
       <c r="AC2" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -932,22 +947,25 @@
       <c r="AG2">
         <v>-2.928906679153442</v>
       </c>
-      <c r="AH2" t="s">
-        <v>122</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300007</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>1.79</v>
@@ -965,7 +983,7 @@
         <v>38940.26</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -1006,8 +1024,23 @@
       <c r="W3">
         <v>0.1</v>
       </c>
+      <c r="X3">
+        <v>2.66</v>
+      </c>
+      <c r="Y3">
+        <v>55.48</v>
+      </c>
+      <c r="Z3">
+        <v>1.84</v>
+      </c>
       <c r="AC3" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1015,22 +1048,25 @@
       <c r="AG3">
         <v>3.930842876434326</v>
       </c>
-      <c r="AH3" t="s">
-        <v>122</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300014</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-0.25</v>
@@ -1048,7 +1084,7 @@
         <v>150783.73</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4">
         <v>6</v>
@@ -1089,8 +1125,23 @@
       <c r="W4">
         <v>-0.04</v>
       </c>
+      <c r="X4">
+        <v>0.15</v>
+      </c>
+      <c r="Y4">
+        <v>80.94</v>
+      </c>
+      <c r="Z4">
+        <v>13.17</v>
+      </c>
       <c r="AC4" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1098,22 +1149,25 @@
       <c r="AG4">
         <v>0.2865948975086212</v>
       </c>
-      <c r="AH4" t="s">
-        <v>122</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300043</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-1.39</v>
@@ -1131,7 +1185,7 @@
         <v>10222.83</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -1172,8 +1226,23 @@
       <c r="W5">
         <v>-0.04</v>
       </c>
+      <c r="X5">
+        <v>20</v>
+      </c>
+      <c r="Y5">
+        <v>6.66</v>
+      </c>
+      <c r="Z5">
+        <v>17.67</v>
+      </c>
       <c r="AC5" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1181,22 +1250,25 @@
       <c r="AG5">
         <v>7.168986320495605</v>
       </c>
-      <c r="AH5" t="s">
-        <v>122</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300049</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.03</v>
@@ -1214,7 +1286,7 @@
         <v>17607.2</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K6">
         <v>12</v>
@@ -1255,8 +1327,23 @@
       <c r="W6">
         <v>-0.03</v>
       </c>
+      <c r="X6">
+        <v>20.01</v>
+      </c>
+      <c r="Y6">
+        <v>82.23999999999999</v>
+      </c>
+      <c r="Z6">
+        <v>18.78</v>
+      </c>
       <c r="AC6" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1264,22 +1351,25 @@
       <c r="AG6">
         <v>5.479254245758057</v>
       </c>
-      <c r="AH6" t="s">
-        <v>122</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300085</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>2.46</v>
@@ -1297,7 +1387,7 @@
         <v>85022.32000000001</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1338,8 +1428,23 @@
       <c r="W7">
         <v>-0.09</v>
       </c>
+      <c r="X7">
+        <v>-1.04</v>
+      </c>
+      <c r="Y7">
+        <v>55.88</v>
+      </c>
+      <c r="Z7">
+        <v>-0.04</v>
+      </c>
       <c r="AC7" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1347,22 +1452,25 @@
       <c r="AG7">
         <v>14.92906188964844</v>
       </c>
-      <c r="AH7" t="s">
-        <v>122</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300139</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-1.79</v>
@@ -1380,7 +1488,7 @@
         <v>40463.39</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1421,8 +1529,23 @@
       <c r="W8">
         <v>-0.59</v>
       </c>
+      <c r="X8">
+        <v>-5.18</v>
+      </c>
+      <c r="Y8">
+        <v>27.4</v>
+      </c>
+      <c r="Z8">
+        <v>4.02</v>
+      </c>
       <c r="AC8" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1430,22 +1553,25 @@
       <c r="AG8">
         <v>1.503680348396301</v>
       </c>
-      <c r="AH8" t="s">
-        <v>122</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300237</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>11.83</v>
@@ -1463,7 +1589,7 @@
         <v>40706.68</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9">
         <v>12</v>
@@ -1504,8 +1630,23 @@
       <c r="W9">
         <v>0.99</v>
       </c>
+      <c r="X9">
+        <v>9.94</v>
+      </c>
+      <c r="Y9">
+        <v>4.1</v>
+      </c>
+      <c r="Z9">
+        <v>8.470000000000001</v>
+      </c>
       <c r="AC9" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1513,22 +1654,25 @@
       <c r="AG9">
         <v>4.137716770172119</v>
       </c>
-      <c r="AH9" t="s">
-        <v>122</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300252</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>19.24</v>
@@ -1546,7 +1690,7 @@
         <v>176063.72</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1587,8 +1731,23 @@
       <c r="W10">
         <v>-0.77</v>
       </c>
+      <c r="X10">
+        <v>-3.78</v>
+      </c>
+      <c r="Y10">
+        <v>16.36</v>
+      </c>
+      <c r="Z10">
+        <v>-4.72</v>
+      </c>
       <c r="AC10" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1596,22 +1755,25 @@
       <c r="AG10">
         <v>4.618619441986084</v>
       </c>
-      <c r="AH10" t="s">
-        <v>122</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300274</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-2.4</v>
@@ -1629,7 +1791,7 @@
         <v>310124.11</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1670,8 +1832,23 @@
       <c r="W11">
         <v>-0.08</v>
       </c>
+      <c r="X11">
+        <v>2.05</v>
+      </c>
+      <c r="Y11">
+        <v>149.32</v>
+      </c>
+      <c r="Z11">
+        <v>11.39</v>
+      </c>
       <c r="AC11" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1679,22 +1856,25 @@
       <c r="AG11">
         <v>-2.093240737915039</v>
       </c>
-      <c r="AH11" t="s">
-        <v>122</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300308</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-3.58</v>
@@ -1712,7 +1892,7 @@
         <v>562503.58</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K12">
         <v>44</v>
@@ -1753,8 +1933,23 @@
       <c r="W12">
         <v>-0.09</v>
       </c>
+      <c r="X12">
+        <v>-3.33</v>
+      </c>
+      <c r="Y12">
+        <v>419.97</v>
+      </c>
+      <c r="Z12">
+        <v>-1</v>
+      </c>
       <c r="AC12" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1762,22 +1957,25 @@
       <c r="AG12">
         <v>2.088674545288086</v>
       </c>
-      <c r="AH12" t="s">
-        <v>122</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300324</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>7.2</v>
@@ -1795,7 +1993,7 @@
         <v>59305.84</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1836,8 +2034,23 @@
       <c r="W13">
         <v>-0.01</v>
       </c>
+      <c r="X13">
+        <v>1.54</v>
+      </c>
+      <c r="Y13">
+        <v>7.48</v>
+      </c>
+      <c r="Z13">
+        <v>4.62</v>
+      </c>
       <c r="AC13" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1845,22 +2058,25 @@
       <c r="AG13">
         <v>2.149195194244385</v>
       </c>
-      <c r="AH13" t="s">
-        <v>122</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300409</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>1.12</v>
@@ -1878,7 +2094,7 @@
         <v>77006.32000000001</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <v>20</v>
@@ -1919,8 +2135,23 @@
       <c r="W14">
         <v>0.03</v>
       </c>
+      <c r="X14">
+        <v>-2.44</v>
+      </c>
+      <c r="Y14">
+        <v>27.09</v>
+      </c>
+      <c r="Z14">
+        <v>0.3</v>
+      </c>
       <c r="AC14" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1928,22 +2159,25 @@
       <c r="AG14">
         <v>3.874322414398193</v>
       </c>
-      <c r="AH14" t="s">
-        <v>122</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300450</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-7.62</v>
@@ -1961,7 +2195,7 @@
         <v>385917.54</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -2002,8 +2236,23 @@
       <c r="W15">
         <v>-0.48</v>
       </c>
+      <c r="X15">
+        <v>1.44</v>
+      </c>
+      <c r="Y15">
+        <v>57.58</v>
+      </c>
+      <c r="Z15">
+        <v>3.65</v>
+      </c>
       <c r="AC15" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2011,22 +2260,25 @@
       <c r="AG15">
         <v>-0.196575403213501</v>
       </c>
-      <c r="AH15" t="s">
-        <v>122</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300475</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>4.08</v>
@@ -2044,7 +2296,7 @@
         <v>115117.88</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -2085,8 +2337,23 @@
       <c r="W16">
         <v>0.14</v>
       </c>
+      <c r="X16">
+        <v>2.26</v>
+      </c>
+      <c r="Y16">
+        <v>78.8</v>
+      </c>
+      <c r="Z16">
+        <v>17.37</v>
+      </c>
       <c r="AC16" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2094,22 +2361,25 @@
       <c r="AG16">
         <v>4.341956615447998</v>
       </c>
-      <c r="AH16" t="s">
-        <v>122</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300476</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0.5</v>
@@ -2127,7 +2397,7 @@
         <v>606716.42</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17">
         <v>68</v>
@@ -2168,8 +2438,23 @@
       <c r="W17">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X17">
+        <v>-2.95</v>
+      </c>
+      <c r="Y17">
+        <v>339</v>
+      </c>
+      <c r="Z17">
+        <v>-0.21</v>
+      </c>
       <c r="AC17" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2177,22 +2462,25 @@
       <c r="AG17">
         <v>-1.969735980033875</v>
       </c>
-      <c r="AH17" t="s">
-        <v>122</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300502</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-4.71</v>
@@ -2210,7 +2498,7 @@
         <v>562334.16</v>
       </c>
       <c r="J18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2251,8 +2539,23 @@
       <c r="W18">
         <v>-0.19</v>
       </c>
+      <c r="X18">
+        <v>-2.15</v>
+      </c>
+      <c r="Y18">
+        <v>355.98</v>
+      </c>
+      <c r="Z18">
+        <v>-1.66</v>
+      </c>
       <c r="AC18" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2260,22 +2563,25 @@
       <c r="AG18">
         <v>11.84173583984375</v>
       </c>
-      <c r="AH18" t="s">
-        <v>122</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300528</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-1.2</v>
@@ -2293,7 +2599,7 @@
         <v>49828.54</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2334,8 +2640,23 @@
       <c r="W19">
         <v>-0.27</v>
       </c>
+      <c r="X19">
+        <v>10.65</v>
+      </c>
+      <c r="Y19">
+        <v>33.45</v>
+      </c>
+      <c r="Z19">
+        <v>30.72</v>
+      </c>
       <c r="AC19" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2343,22 +2664,25 @@
       <c r="AG19">
         <v>2.028649568557739</v>
       </c>
-      <c r="AH19" t="s">
-        <v>122</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300539</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-2.56</v>
@@ -2376,7 +2700,7 @@
         <v>18499.76</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20">
         <v>6</v>
@@ -2417,8 +2741,23 @@
       <c r="W20">
         <v>-0.38</v>
       </c>
+      <c r="X20">
+        <v>-0.8</v>
+      </c>
+      <c r="Y20">
+        <v>38.43</v>
+      </c>
+      <c r="Z20">
+        <v>0.89</v>
+      </c>
       <c r="AC20" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2426,22 +2765,25 @@
       <c r="AG20">
         <v>2.009843587875366</v>
       </c>
-      <c r="AH20" t="s">
-        <v>122</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300618</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-0.19</v>
@@ -2459,7 +2801,7 @@
         <v>35024.12</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K21">
         <v>6</v>
@@ -2500,8 +2842,23 @@
       <c r="W21">
         <v>-0.08</v>
       </c>
+      <c r="X21">
+        <v>-3.9</v>
+      </c>
+      <c r="Y21">
+        <v>53.49</v>
+      </c>
+      <c r="Z21">
+        <v>1.04</v>
+      </c>
       <c r="AC21" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2509,22 +2866,25 @@
       <c r="AG21">
         <v>5.762932300567627</v>
       </c>
-      <c r="AH21" t="s">
-        <v>122</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300619</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-4.23</v>
@@ -2542,7 +2902,7 @@
         <v>19647.15</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2583,8 +2943,23 @@
       <c r="W22">
         <v>-0.2</v>
       </c>
+      <c r="X22">
+        <v>-5.95</v>
+      </c>
+      <c r="Y22">
+        <v>39</v>
+      </c>
+      <c r="Z22">
+        <v>9.83</v>
+      </c>
       <c r="AC22" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2592,22 +2967,25 @@
       <c r="AG22">
         <v>3.499618768692017</v>
       </c>
-      <c r="AH22" t="s">
-        <v>122</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300680</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>7.19</v>
@@ -2625,7 +3003,7 @@
         <v>46751.46</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2666,8 +3044,23 @@
       <c r="W23">
         <v>0.18</v>
       </c>
+      <c r="X23">
+        <v>8.41</v>
+      </c>
+      <c r="Y23">
+        <v>63.65</v>
+      </c>
+      <c r="Z23">
+        <v>12.97</v>
+      </c>
       <c r="AC23" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -2675,22 +3068,25 @@
       <c r="AG23">
         <v>1.471408724784851</v>
       </c>
-      <c r="AH23" t="s">
-        <v>123</v>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300790</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>1.63</v>
@@ -2708,7 +3104,7 @@
         <v>21956.32</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K24">
         <v>9</v>
@@ -2749,8 +3145,23 @@
       <c r="W24">
         <v>0.15</v>
       </c>
+      <c r="X24">
+        <v>-2.91</v>
+      </c>
+      <c r="Y24">
+        <v>35.34</v>
+      </c>
+      <c r="Z24">
+        <v>-2.05</v>
+      </c>
       <c r="AC24" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2758,22 +3169,25 @@
       <c r="AG24">
         <v>8.144804954528809</v>
       </c>
-      <c r="AH24" t="s">
-        <v>122</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300803</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>2.37</v>
@@ -2791,7 +3205,7 @@
         <v>180248.17</v>
       </c>
       <c r="J25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25">
         <v>24</v>
@@ -2832,8 +3246,23 @@
       <c r="W25">
         <v>0.03</v>
       </c>
+      <c r="X25">
+        <v>1.78</v>
+      </c>
+      <c r="Y25">
+        <v>152.5</v>
+      </c>
+      <c r="Z25">
+        <v>-0.72</v>
+      </c>
       <c r="AC25" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2841,22 +3270,25 @@
       <c r="AG25">
         <v>6.100989818572998</v>
       </c>
-      <c r="AH25" t="s">
-        <v>122</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300857</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>1.21</v>
@@ -2874,7 +3306,7 @@
         <v>76445.31</v>
       </c>
       <c r="J26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K26">
         <v>16</v>
@@ -2915,8 +3347,23 @@
       <c r="W26">
         <v>0.05</v>
       </c>
+      <c r="X26">
+        <v>0.37</v>
+      </c>
+      <c r="Y26">
+        <v>141.79</v>
+      </c>
+      <c r="Z26">
+        <v>2.22</v>
+      </c>
       <c r="AC26" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>1</v>
@@ -2924,22 +3371,25 @@
       <c r="AG26">
         <v>9.329910278320312</v>
       </c>
-      <c r="AH26" t="s">
-        <v>123</v>
+      <c r="AH26">
+        <v>1</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300918</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-1.89</v>
@@ -2957,7 +3407,7 @@
         <v>18041.56</v>
       </c>
       <c r="J27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2998,8 +3448,23 @@
       <c r="W27">
         <v>0.04</v>
       </c>
+      <c r="X27">
+        <v>-1.83</v>
+      </c>
+      <c r="Y27">
+        <v>25.15</v>
+      </c>
+      <c r="Z27">
+        <v>1.17</v>
+      </c>
       <c r="AC27" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3007,22 +3472,25 @@
       <c r="AG27">
         <v>10.46036911010742</v>
       </c>
-      <c r="AH27" t="s">
-        <v>122</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300953</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>3.68</v>
@@ -3040,7 +3508,7 @@
         <v>33808.24</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28">
         <v>13</v>
@@ -3081,8 +3549,23 @@
       <c r="W28">
         <v>0.24</v>
       </c>
+      <c r="X28">
+        <v>4.73</v>
+      </c>
+      <c r="Y28">
+        <v>163.91</v>
+      </c>
+      <c r="Z28">
+        <v>3.21</v>
+      </c>
       <c r="AC28" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3090,22 +3573,25 @@
       <c r="AG28">
         <v>1.401855230331421</v>
       </c>
-      <c r="AH28" t="s">
-        <v>122</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300990</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-1.31</v>
@@ -3123,7 +3609,7 @@
         <v>14150.3</v>
       </c>
       <c r="J29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3164,8 +3650,23 @@
       <c r="W29">
         <v>-0.31</v>
       </c>
+      <c r="X29">
+        <v>4.95</v>
+      </c>
+      <c r="Y29">
+        <v>85.44</v>
+      </c>
+      <c r="Z29">
+        <v>6.89</v>
+      </c>
       <c r="AC29" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3173,22 +3674,25 @@
       <c r="AG29">
         <v>-4.731734275817871</v>
       </c>
-      <c r="AH29" t="s">
-        <v>122</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301076</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>1.24</v>
@@ -3206,7 +3710,7 @@
         <v>33465.16</v>
       </c>
       <c r="J30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -3247,8 +3751,23 @@
       <c r="W30">
         <v>0.01</v>
       </c>
+      <c r="X30">
+        <v>5.29</v>
+      </c>
+      <c r="Y30">
+        <v>64.81</v>
+      </c>
+      <c r="Z30">
+        <v>2.87</v>
+      </c>
       <c r="AC30" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3256,22 +3775,25 @@
       <c r="AG30">
         <v>3.742856979370117</v>
       </c>
-      <c r="AH30" t="s">
-        <v>122</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301165</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>5.19</v>
@@ -3289,7 +3811,7 @@
         <v>38760.37</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3330,8 +3852,23 @@
       <c r="W31">
         <v>0.39</v>
       </c>
+      <c r="X31">
+        <v>1.14</v>
+      </c>
+      <c r="Y31">
+        <v>95.55</v>
+      </c>
+      <c r="Z31">
+        <v>1.3</v>
+      </c>
       <c r="AC31" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3339,22 +3876,25 @@
       <c r="AG31">
         <v>3.771278858184814</v>
       </c>
-      <c r="AH31" t="s">
-        <v>122</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301307</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-0.06</v>
@@ -3372,7 +3912,7 @@
         <v>8969.98</v>
       </c>
       <c r="J32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -3413,8 +3953,23 @@
       <c r="W32">
         <v>0.01</v>
       </c>
+      <c r="X32">
+        <v>2.78</v>
+      </c>
+      <c r="Y32">
+        <v>35.87</v>
+      </c>
+      <c r="Z32">
+        <v>14.24</v>
+      </c>
       <c r="AC32" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3422,22 +3977,25 @@
       <c r="AG32">
         <v>3.816052436828613</v>
       </c>
-      <c r="AH32" t="s">
-        <v>122</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301377</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>3.94</v>
@@ -3455,7 +4013,7 @@
         <v>30268.23</v>
       </c>
       <c r="J33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -3496,8 +4054,23 @@
       <c r="W33">
         <v>0.45</v>
       </c>
+      <c r="X33">
+        <v>-2.38</v>
+      </c>
+      <c r="Y33">
+        <v>89.38</v>
+      </c>
+      <c r="Z33">
+        <v>0.63</v>
+      </c>
       <c r="AC33" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3505,22 +4078,25 @@
       <c r="AG33">
         <v>6.540448188781738</v>
       </c>
-      <c r="AH33" t="s">
-        <v>122</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301398</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-4.69</v>
@@ -3538,7 +4114,7 @@
         <v>15399.58</v>
       </c>
       <c r="J34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -3579,8 +4155,23 @@
       <c r="W34">
         <v>-0.62</v>
       </c>
+      <c r="X34">
+        <v>1.84</v>
+      </c>
+      <c r="Y34">
+        <v>53.89</v>
+      </c>
+      <c r="Z34">
+        <v>2.88</v>
+      </c>
       <c r="AC34" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3588,22 +4179,25 @@
       <c r="AG34">
         <v>-1.301870226860046</v>
       </c>
-      <c r="AH34" t="s">
-        <v>122</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301413</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>1.55</v>
@@ -3621,7 +4215,7 @@
         <v>16391.84</v>
       </c>
       <c r="J35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K35">
         <v>16</v>
@@ -3662,8 +4256,23 @@
       <c r="W35">
         <v>0.09</v>
       </c>
+      <c r="X35">
+        <v>5.44</v>
+      </c>
+      <c r="Y35">
+        <v>155</v>
+      </c>
+      <c r="Z35">
+        <v>5.95</v>
+      </c>
       <c r="AC35" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3671,22 +4280,25 @@
       <c r="AG35">
         <v>2.58814549446106</v>
       </c>
-      <c r="AH35" t="s">
-        <v>122</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301486</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>0.61</v>
@@ -3704,7 +4316,7 @@
         <v>23662.03</v>
       </c>
       <c r="J36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K36">
         <v>6</v>
@@ -3745,8 +4357,23 @@
       <c r="W36">
         <v>-0.02</v>
       </c>
+      <c r="X36">
+        <v>-2.22</v>
+      </c>
+      <c r="Y36">
+        <v>102</v>
+      </c>
+      <c r="Z36">
+        <v>-3.04</v>
+      </c>
       <c r="AC36" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3754,22 +4381,25 @@
       <c r="AG36">
         <v>4.797132015228271</v>
       </c>
-      <c r="AH36" t="s">
-        <v>122</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301488</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>0.26</v>
@@ -3787,7 +4417,7 @@
         <v>24215.41</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K37">
         <v>13</v>
@@ -3828,8 +4458,23 @@
       <c r="W37">
         <v>0.06</v>
       </c>
+      <c r="X37">
+        <v>11.96</v>
+      </c>
+      <c r="Y37">
+        <v>190.94</v>
+      </c>
+      <c r="Z37">
+        <v>29.53</v>
+      </c>
       <c r="AC37" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3837,22 +4482,25 @@
       <c r="AG37">
         <v>2.641201019287109</v>
       </c>
-      <c r="AH37" t="s">
-        <v>122</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301489</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-4.02</v>
@@ -3870,7 +4518,7 @@
         <v>16281.76</v>
       </c>
       <c r="J38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K38">
         <v>4</v>
@@ -3911,8 +4559,23 @@
       <c r="W38">
         <v>-0.11</v>
       </c>
+      <c r="X38">
+        <v>-1.32</v>
+      </c>
+      <c r="Y38">
+        <v>219.83</v>
+      </c>
+      <c r="Z38">
+        <v>1.2</v>
+      </c>
       <c r="AC38" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3920,22 +4583,25 @@
       <c r="AG38">
         <v>3.424762487411499</v>
       </c>
-      <c r="AH38" t="s">
-        <v>122</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301617</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>1.31</v>
@@ -3953,7 +4619,7 @@
         <v>18701.17</v>
       </c>
       <c r="J39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K39">
         <v>16</v>
@@ -3994,8 +4660,23 @@
       <c r="W39">
         <v>0.01</v>
       </c>
+      <c r="X39">
+        <v>-2.67</v>
+      </c>
+      <c r="Y39">
+        <v>84.62</v>
+      </c>
+      <c r="Z39">
+        <v>-0.5600000000000001</v>
+      </c>
       <c r="AC39" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4003,22 +4684,25 @@
       <c r="AG39">
         <v>2.961273431777954</v>
       </c>
-      <c r="AH39" t="s">
-        <v>122</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688041</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>4.05</v>
@@ -4036,7 +4720,7 @@
         <v>519800.01</v>
       </c>
       <c r="J40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4077,8 +4761,23 @@
       <c r="W40">
         <v>-0.04</v>
       </c>
+      <c r="X40">
+        <v>5.22</v>
+      </c>
+      <c r="Y40">
+        <v>241.88</v>
+      </c>
+      <c r="Z40">
+        <v>5.27</v>
+      </c>
       <c r="AC40" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4086,22 +4785,25 @@
       <c r="AG40">
         <v>13.33890819549561</v>
       </c>
-      <c r="AH40" t="s">
-        <v>122</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688167</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>10.31</v>
@@ -4119,7 +4821,7 @@
         <v>71307.50999999999</v>
       </c>
       <c r="J41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K41">
         <v>6</v>
@@ -4160,8 +4862,23 @@
       <c r="W41">
         <v>0.5</v>
       </c>
+      <c r="X41">
+        <v>1.58</v>
+      </c>
+      <c r="Y41">
+        <v>165.38</v>
+      </c>
+      <c r="Z41">
+        <v>3.43</v>
+      </c>
       <c r="AC41" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4169,22 +4886,25 @@
       <c r="AG41">
         <v>-17.70436096191406</v>
       </c>
-      <c r="AH41" t="s">
-        <v>122</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688195</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>1.47</v>
@@ -4202,7 +4922,7 @@
         <v>52270.34</v>
       </c>
       <c r="J42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K42">
         <v>20</v>
@@ -4243,8 +4963,23 @@
       <c r="W42">
         <v>-0.09</v>
       </c>
+      <c r="X42">
+        <v>6.81</v>
+      </c>
+      <c r="Y42">
+        <v>115.88</v>
+      </c>
+      <c r="Z42">
+        <v>12.58</v>
+      </c>
       <c r="AC42" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4252,22 +4987,25 @@
       <c r="AG42">
         <v>12.78753185272217</v>
       </c>
-      <c r="AH42" t="s">
-        <v>122</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688202</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>1.66</v>
@@ -4285,7 +5023,7 @@
         <v>16264.8</v>
       </c>
       <c r="J43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -4326,8 +5064,23 @@
       <c r="W43">
         <v>0.11</v>
       </c>
+      <c r="X43">
+        <v>3.12</v>
+      </c>
+      <c r="Y43">
+        <v>84.7</v>
+      </c>
+      <c r="Z43">
+        <v>7.98</v>
+      </c>
       <c r="AC43" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4335,22 +5088,25 @@
       <c r="AG43">
         <v>4.812793731689453</v>
       </c>
-      <c r="AH43" t="s">
-        <v>122</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688256</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>5.9</v>
@@ -4368,7 +5124,7 @@
         <v>525656.73</v>
       </c>
       <c r="J44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4409,8 +5165,23 @@
       <c r="W44">
         <v>0</v>
       </c>
+      <c r="X44">
+        <v>-3.23</v>
+      </c>
+      <c r="Y44">
+        <v>1529.4</v>
+      </c>
+      <c r="Z44">
+        <v>4.13</v>
+      </c>
       <c r="AC44" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>1</v>
@@ -4418,22 +5189,25 @@
       <c r="AG44">
         <v>4.958067417144775</v>
       </c>
-      <c r="AH44" t="s">
-        <v>122</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688331</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-0.26</v>
@@ -4451,7 +5225,7 @@
         <v>15895.04</v>
       </c>
       <c r="J45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K45">
         <v>4</v>
@@ -4492,8 +5266,23 @@
       <c r="W45">
         <v>0</v>
       </c>
+      <c r="X45">
+        <v>-1.79</v>
+      </c>
+      <c r="Y45">
+        <v>109.99</v>
+      </c>
+      <c r="Z45">
+        <v>0.1</v>
+      </c>
       <c r="AC45" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4501,22 +5290,25 @@
       <c r="AG45">
         <v>6.703644752502441</v>
       </c>
-      <c r="AH45" t="s">
-        <v>122</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688388</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-4.44</v>
@@ -4534,7 +5326,7 @@
         <v>55899.11</v>
       </c>
       <c r="J46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K46">
         <v>9</v>
@@ -4575,8 +5367,23 @@
       <c r="W46">
         <v>-0.42</v>
       </c>
+      <c r="X46">
+        <v>-2.81</v>
+      </c>
+      <c r="Y46">
+        <v>33.79</v>
+      </c>
+      <c r="Z46">
+        <v>1.32</v>
+      </c>
       <c r="AC46" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4584,22 +5391,25 @@
       <c r="AG46">
         <v>14.11804580688477</v>
       </c>
-      <c r="AH46" t="s">
-        <v>122</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688411</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-3.42</v>
@@ -4617,7 +5427,7 @@
         <v>11870.19</v>
       </c>
       <c r="J47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K47">
         <v>9</v>
@@ -4658,8 +5468,23 @@
       <c r="W47">
         <v>-0.19</v>
       </c>
+      <c r="X47">
+        <v>8.65</v>
+      </c>
+      <c r="Y47">
+        <v>219</v>
+      </c>
+      <c r="Z47">
+        <v>27.68</v>
+      </c>
       <c r="AC47" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4667,22 +5492,25 @@
       <c r="AG47">
         <v>7.73707389831543</v>
       </c>
-      <c r="AH47" t="s">
-        <v>122</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688498</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-3.93</v>
@@ -4700,7 +5528,7 @@
         <v>42920.64</v>
       </c>
       <c r="J48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -4741,8 +5569,23 @@
       <c r="W48">
         <v>-0.2</v>
       </c>
+      <c r="X48">
+        <v>-2.3</v>
+      </c>
+      <c r="Y48">
+        <v>380</v>
+      </c>
+      <c r="Z48">
+        <v>2.21</v>
+      </c>
       <c r="AC48" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>1</v>
@@ -4750,22 +5593,25 @@
       <c r="AG48">
         <v>3.676273107528687</v>
       </c>
-      <c r="AH48" t="s">
-        <v>122</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688521</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>16.41</v>
@@ -4783,7 +5629,7 @@
         <v>389237.63</v>
       </c>
       <c r="J49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K49">
         <v>8</v>
@@ -4824,8 +5670,23 @@
       <c r="W49">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X49">
+        <v>-1.25</v>
+      </c>
+      <c r="Y49">
+        <v>200</v>
+      </c>
+      <c r="Z49">
+        <v>12.29</v>
+      </c>
       <c r="AC49" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -4833,22 +5694,25 @@
       <c r="AG49">
         <v>40.44696044921875</v>
       </c>
-      <c r="AH49" t="s">
-        <v>122</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688629</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>5.39</v>
@@ -4866,7 +5730,7 @@
         <v>41165.69</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -4907,8 +5771,23 @@
       <c r="W50">
         <v>0.31</v>
       </c>
+      <c r="X50">
+        <v>-1.47</v>
+      </c>
+      <c r="Y50">
+        <v>88.48999999999999</v>
+      </c>
+      <c r="Z50">
+        <v>1.95</v>
+      </c>
       <c r="AC50" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4916,22 +5795,25 @@
       <c r="AG50">
         <v>1.893738031387329</v>
       </c>
-      <c r="AH50" t="s">
-        <v>122</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688630</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-1.32</v>
@@ -4949,7 +5831,7 @@
         <v>27264.66</v>
       </c>
       <c r="J51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -4990,8 +5872,23 @@
       <c r="W51">
         <v>-0.04</v>
       </c>
+      <c r="X51">
+        <v>-3.05</v>
+      </c>
+      <c r="Y51">
+        <v>152.6</v>
+      </c>
+      <c r="Z51">
+        <v>1.74</v>
+      </c>
       <c r="AC51" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -4999,22 +5896,25 @@
       <c r="AG51">
         <v>6.636144161224365</v>
       </c>
-      <c r="AH51" t="s">
-        <v>122</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688981</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>1.22</v>
@@ -5032,7 +5932,7 @@
         <v>224332.16</v>
       </c>
       <c r="J52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -5073,8 +5973,23 @@
       <c r="W52">
         <v>-0.04</v>
       </c>
+      <c r="X52">
+        <v>0.22</v>
+      </c>
+      <c r="Y52">
+        <v>112.55</v>
+      </c>
+      <c r="Z52">
+        <v>0.82</v>
+      </c>
       <c r="AC52" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5082,8 +5997,11 @@
       <c r="AG52">
         <v>22.12037086486816</v>
       </c>
-      <c r="AH52" t="s">
-        <v>122</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
